--- a/109下/109下 Excel/Excel 第二次上課/Ch03-02.xlsx
+++ b/109下/109下 Excel/Excel 第二次上課/Ch03-02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Downloads\00 國立空中大學\109下\109下 Excel\Excel 第二次上課\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Documents\GitHub\NationalOpenUniversity\109下\109下 Excel\Excel 第二次上課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D89B3A-CD09-41E6-BAA6-F796B4C8168E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1FCB17-FA3A-4FAC-AD6C-C359F7CC0450}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5136" yWindow="3516" windowWidth="15084" windowHeight="11952" xr2:uid="{53C274BE-DE42-4B06-8699-AFEE8A8CF71C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{53C274BE-DE42-4B06-8699-AFEE8A8CF71C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
@@ -997,7 +997,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="_-\$* #,##0_ ;_-\$* \-#,##0\ ;_-\$* &quot;-&quot;_ ;_-@_ "/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1299,13 +1299,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1651,7 +1651,10 @@
   <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1663,20 +1666,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" thickTop="1">
       <c r="A3" s="4" t="s">
@@ -1718,7 +1721,7 @@
       <c r="D5">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="23">
         <f>C5*D5</f>
         <v>4200</v>
       </c>
@@ -1736,7 +1739,7 @@
       <c r="D6">
         <v>32</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <f t="shared" ref="E6:E18" si="0">C6*D6</f>
         <v>11200</v>
       </c>
@@ -1754,7 +1757,7 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
@@ -1772,7 +1775,7 @@
       <c r="D8">
         <v>42</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <f t="shared" si="0"/>
         <v>17640</v>
       </c>
@@ -1790,7 +1793,7 @@
       <c r="D9">
         <v>56</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <f t="shared" si="0"/>
         <v>19600</v>
       </c>
@@ -1808,7 +1811,7 @@
       <c r="D10">
         <v>43</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <f t="shared" si="0"/>
         <v>19350</v>
       </c>
@@ -1826,7 +1829,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -1844,7 +1847,7 @@
       <c r="D12">
         <v>23</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <f t="shared" si="0"/>
         <v>10350</v>
       </c>
@@ -1862,7 +1865,7 @@
       <c r="D13">
         <v>17</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <f t="shared" si="0"/>
         <v>7650</v>
       </c>
@@ -1880,7 +1883,7 @@
       <c r="D14">
         <v>7</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <f t="shared" si="0"/>
         <v>3150</v>
       </c>
@@ -1898,7 +1901,7 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
@@ -1916,7 +1919,7 @@
       <c r="D16">
         <v>8</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <f t="shared" si="0"/>
         <v>3040</v>
       </c>
@@ -1934,7 +1937,7 @@
       <c r="D17">
         <v>13</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <f t="shared" si="0"/>
         <v>2860</v>
       </c>
@@ -1952,7 +1955,7 @@
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
@@ -1964,7 +1967,7 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="22">
+      <c r="E19" s="24">
         <f>SUMPRODUCT(C5:C18,D5:D18)</f>
         <v>102080</v>
       </c>
@@ -1991,6 +1994,10 @@
       <c r="D22">
         <v>54</v>
       </c>
+      <c r="E22" s="23">
+        <f>C22*D22</f>
+        <v>32400</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
@@ -2005,6 +2012,10 @@
       <c r="D23">
         <v>2</v>
       </c>
+      <c r="E23" s="23">
+        <f t="shared" ref="E23:E31" si="1">C23*D23</f>
+        <v>1160</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
@@ -2019,6 +2030,10 @@
       <c r="D24">
         <v>3</v>
       </c>
+      <c r="E24" s="23">
+        <f t="shared" si="1"/>
+        <v>1740</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
@@ -2033,6 +2048,10 @@
       <c r="D25">
         <v>1</v>
       </c>
+      <c r="E25" s="23">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
@@ -2047,6 +2066,10 @@
       <c r="D26">
         <v>7</v>
       </c>
+      <c r="E26" s="23">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
@@ -2061,6 +2084,10 @@
       <c r="D27">
         <v>56</v>
       </c>
+      <c r="E27" s="23">
+        <f t="shared" si="1"/>
+        <v>32480</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
@@ -2075,6 +2102,10 @@
       <c r="D28">
         <v>43</v>
       </c>
+      <c r="E28" s="23">
+        <f t="shared" si="1"/>
+        <v>24940</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
@@ -2089,6 +2120,10 @@
       <c r="D29">
         <v>23</v>
       </c>
+      <c r="E29" s="23">
+        <f t="shared" si="1"/>
+        <v>14950</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
@@ -2102,6 +2137,10 @@
       </c>
       <c r="D30">
         <v>21</v>
+      </c>
+      <c r="E30" s="23">
+        <f t="shared" si="1"/>
+        <v>16800</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2111,7 +2150,10 @@
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="1">
+        <f>SUM(E22:E30)</f>
+        <v>129270</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="10"/>
